--- a/biology/Zoologie/Blongios_à_cou_jaune/Blongios_à_cou_jaune.xlsx
+++ b/biology/Zoologie/Blongios_à_cou_jaune/Blongios_à_cou_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dupetor flavicollis
 Le Blongios à cou jaune (Dupetor flavicollis) est une espèce d'oiseaux de la famille des Ardeidae. C'est la seule espèce du genre Dupetor, parfois classée dans le genre Ixobrychus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La blongios à cou jaune est un héron qui mesure environ 55 cm de long[1], a une envergure de 80 cm et un poids variant entre 300 et 420 g. Il a les côtés du cou jaunes et la calotte noire. Son ventre et son cou sont brun strié de blanc et son dos est noir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La blongios à cou jaune est un héron qui mesure environ 55 cm de long, a une envergure de 80 cm et un poids variant entre 300 et 420 g. Il a les côtés du cou jaunes et la calotte noire. Son ventre et son cou sont brun strié de blanc et son dos est noir.
 Les juvéniles sont plus sombres que les adultes.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le blongios à cou jaune vit dans une aire de répartition qui s'étend à l'Ouest jusqu'à l'Inde, à l'Est jusqu'au Japon, au Nord jusqu'en Chine et au Sud jusqu'en Australie.</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce héron fréquente les endroits où il y a beaucoup d'eau comme les rivières, les marais, la mangrove littorale, les lacs de montagne jusqu'à 1200 m et les prairies inondées.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le blongios vit normalement en solitaire hormis pendant la saison de reproduction où il vit en couple (ce qui est très rare dans la famille des hérons car la plupart d'entre eux vivent en colonie). 
 Le jour, il se cache dans l'épaisseur de la végétation tropical et il part en chasse au crépuscule. Il pêche des poissons et des grenouilles, attrape des mollusques, des crustacés et des insectes.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couple de hérons bonglios à cou jaune construit ensemble au printemps un nid près de l'eau, caché dans les roseaux ou les bambous. Ce nid est constitué de rameaux et de plantes aquatiques. La femelle pond 3 à 5 œufs blancs nuancés de bleu ou de vert. Mâle et femelle se relaient pour couver pendant 18 jours. Les petits oisillons restent une douzaine de jours dans leur nid, nourris par la nourriture régurgitée par leurs parents.
 </t>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blongios_%C3%A0_cou_jaune</t>
+          <t>Blongios_à_cou_jaune</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,7 +696,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Dupetor flavicollis flavicollis (Latham, 1790) ;
